--- a/spliced/struggle/2023-04-11_10-09-09/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-09-09/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0122173046693205</v>
+        <v>-0.0303905457258224</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0598647929728031</v>
+        <v>-0.02122756652534</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.067195177078247</v>
+        <v>-0.038026362657547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1317941695451736</v>
+        <v>0.0122173046693205</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.223882108926773</v>
+        <v>-0.0598647929728031</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0047342055477201</v>
+        <v>-0.067195177078247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5534439086914062</v>
+        <v>-0.1317941695451736</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.408488988876343</v>
+        <v>-0.223882108926773</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1953241676092147</v>
+        <v>-0.0047342055477201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5908594131469727</v>
+        <v>-0.5534439086914062</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.143346309661865</v>
+        <v>-2.408488988876343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8623890280723572</v>
+        <v>-0.1953241676092147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.3294090926647186</v>
+        <v>-0.5908594131469727</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.587306261062622</v>
+        <v>-4.143346309661865</v>
       </c>
       <c r="C6" t="n">
-        <v>1.745547413825989</v>
+        <v>0.8623890280723572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.008996725082398</v>
+        <v>-0.3294090926647186</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.703842401504517</v>
+        <v>-3.587306261062622</v>
       </c>
       <c r="C7" t="n">
-        <v>1.318247199058533</v>
+        <v>1.745547413825989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1534798890352249</v>
+        <v>-1.008996725082398</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0916297882795333</v>
+        <v>-2.703842401504517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2032654136419296</v>
+        <v>1.318247199058533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.313818454742432</v>
+        <v>0.1534798890352249</v>
       </c>
       <c r="B9" t="n">
-        <v>3.833332061767578</v>
+        <v>-0.0916297882795333</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.68843150138855</v>
+        <v>0.2032654136419296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2997821271419525</v>
+        <v>1.313818454742432</v>
       </c>
       <c r="B10" t="n">
-        <v>5.671730995178223</v>
+        <v>3.833332061767578</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.668731093406677</v>
+        <v>-1.68843150138855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6543893814086914</v>
+        <v>0.2997821271419525</v>
       </c>
       <c r="B11" t="n">
-        <v>4.36127233505249</v>
+        <v>5.671730995178223</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7669413089752197</v>
+        <v>-1.668731093406677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5648976564407349</v>
+        <v>-0.6543893814086914</v>
       </c>
       <c r="B12" t="n">
-        <v>2.72186279296875</v>
+        <v>4.36127233505249</v>
       </c>
       <c r="C12" t="n">
-        <v>1.022893905639648</v>
+        <v>-0.7669413089752197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7005097270011902</v>
+        <v>-0.5648976564407349</v>
       </c>
       <c r="B13" t="n">
-        <v>1.526399493217468</v>
+        <v>2.72186279296875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2272418737411499</v>
+        <v>1.022893905639648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0536034256219863</v>
+        <v>-0.7005097270011902</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.495856285095215</v>
+        <v>1.526399493217468</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2338086664676666</v>
+        <v>0.2272418737411499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1302670091390609</v>
+        <v>0.0536034256219863</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.946773052215576</v>
+        <v>-1.495856285095215</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.086271166801453</v>
+        <v>-0.2338086664676666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3718642294406891</v>
+        <v>0.1302670091390609</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.293160915374756</v>
+        <v>-5.946773052215576</v>
       </c>
       <c r="C16" t="n">
-        <v>1.783268332481384</v>
+        <v>-1.086271166801453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1963931769132614</v>
+        <v>-0.3718642294406891</v>
       </c>
       <c r="B17" t="n">
-        <v>-4.29804801940918</v>
+        <v>-4.293160915374756</v>
       </c>
       <c r="C17" t="n">
-        <v>1.745852828025818</v>
+        <v>1.783268332481384</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.204487144947052</v>
+        <v>0.1963931769132614</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.893821477890014</v>
+        <v>-4.29804801940918</v>
       </c>
       <c r="C18" t="n">
-        <v>1.158658623695374</v>
+        <v>1.745852828025818</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1171334087848663</v>
+        <v>0.204487144947052</v>
       </c>
       <c r="B19" t="n">
-        <v>0.94042706489563</v>
+        <v>-2.893821477890014</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3061962127685547</v>
+        <v>1.158658623695374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.337044894695282</v>
+        <v>0.1171334087848663</v>
       </c>
       <c r="B20" t="n">
-        <v>3.794236660003662</v>
+        <v>0.94042706489563</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.184467673301697</v>
+        <v>-0.3061962127685547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.337044894695282</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.794236660003662</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.184467673301697</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-0.3572034537792206</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>5.656154155731201</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-1.049466490745544</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.270253658294678</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.0296269636601209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4137084782123565</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.936276435852051</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2823724448680877</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0429132841527462</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.122159481048584</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1867720484733581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.06475171446800231</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.842216849327088</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6108652353286743</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0862847194075584</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-5.713422775268555</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.346194267272949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1818851232528686</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-4.851491928100586</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.392772793769836</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.3181080818176269</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.869678497314453</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9886853694915771</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1050688251852989</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.216677188873291</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3729332387447357</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1996002197265625</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.434922456741333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.2237294018268585</v>
       </c>
     </row>
   </sheetData>
